--- a/Accounts-Schedules/تدريب 12-5-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 12-5-2025 تجمع.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" activeTab="5"/>
+    <workbookView windowWidth="19200" windowHeight="7510" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="269">
   <si>
     <t>Below is the list of trainees scheduled for training at Airalo on Monday, May 12th, from 9 AM to 5 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -786,58 +786,46 @@
     <t>Route</t>
   </si>
   <si>
-    <t>201080229991</t>
-  </si>
-  <si>
     <t>واتر واي</t>
   </si>
   <si>
-    <t>201005599833</t>
-  </si>
-  <si>
     <t>المعادي</t>
   </si>
   <si>
     <t>كوبري شمال طره</t>
   </si>
   <si>
-    <t>201003838875</t>
-  </si>
-  <si>
     <t>مصر الجديده</t>
   </si>
   <si>
     <t>المحكمه</t>
   </si>
   <si>
-    <t>201115300028</t>
-  </si>
-  <si>
     <t>Nour Yasser</t>
   </si>
   <si>
+    <t>الرحاب بوابه 6</t>
+  </si>
+  <si>
+    <t>Eithar Aazzam</t>
+  </si>
+  <si>
+    <t>المهندسين</t>
+  </si>
+  <si>
+    <t>ميدان لبنان</t>
+  </si>
+  <si>
+    <t>نور ياسر</t>
+  </si>
+  <si>
     <t>201557236176</t>
   </si>
   <si>
-    <t>الرحاب بوابه 6</t>
-  </si>
-  <si>
-    <t>Eithar Aazzam</t>
+    <t>ايثار عزام</t>
   </si>
   <si>
     <t>201557944746</t>
-  </si>
-  <si>
-    <t>المهندسين</t>
-  </si>
-  <si>
-    <t>ميدان لبنان</t>
-  </si>
-  <si>
-    <t>نور ياسر</t>
-  </si>
-  <si>
-    <t>ايثار عزام</t>
   </si>
   <si>
     <t>Training</t>
@@ -1845,7 +1833,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1888,7 +1876,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1947,6 +1935,9 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1976,15 +1967,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -2117,12 +2099,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2455,315 +2431,315 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="83"/>
+      <c r="A2" s="81"/>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="16.25" spans="1:1">
-      <c r="A4" s="83"/>
+      <c r="A4" s="81"/>
     </row>
     <row r="5" ht="15.25" spans="1:3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="67" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:3">
-      <c r="A6" s="91"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="78">
         <v>1146120814</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="91"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="89"/>
+      <c r="B7" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="78" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:3">
-      <c r="A8" s="91"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="89"/>
+      <c r="B8" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="91"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="89"/>
+      <c r="B9" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="80">
+      <c r="C9" s="78">
         <v>1099683271</v>
       </c>
     </row>
     <row r="10" ht="50.75" spans="1:3">
-      <c r="A10" s="79" t="s">
+      <c r="A10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="78" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="91"/>
-      <c r="B11" s="80" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="78">
         <v>1500537534</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="79" t="s">
+      <c r="A12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="78">
         <v>1090712285</v>
       </c>
     </row>
     <row r="13" ht="38.25" spans="1:3">
-      <c r="A13" s="91"/>
-      <c r="B13" s="80" t="s">
+      <c r="A13" s="89"/>
+      <c r="B13" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="78" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="91"/>
-      <c r="B14" s="80" t="s">
+      <c r="A14" s="89"/>
+      <c r="B14" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="80">
+      <c r="C14" s="78">
         <v>1032869389</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:3">
-      <c r="A15" s="91"/>
-      <c r="B15" s="80" t="s">
+      <c r="A15" s="89"/>
+      <c r="B15" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="80">
+      <c r="C15" s="78">
         <v>1122819199</v>
       </c>
     </row>
     <row r="16" ht="63.25" spans="1:3">
-      <c r="A16" s="79" t="s">
+      <c r="A16" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="80">
+      <c r="C16" s="78">
         <v>1001753537</v>
       </c>
     </row>
     <row r="17" ht="50.75" spans="1:3">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="78" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="50.75" spans="1:3">
-      <c r="A18" s="79" t="s">
+      <c r="A18" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="78" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:3">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="80">
+      <c r="C19" s="78">
         <v>1013260200</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:3">
-      <c r="A20" s="91"/>
-      <c r="B20" s="80" t="s">
+      <c r="A20" s="89"/>
+      <c r="B20" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="78">
         <v>1283104485</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:3">
-      <c r="A21" s="91"/>
-      <c r="B21" s="80" t="s">
+      <c r="A21" s="89"/>
+      <c r="B21" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="78">
         <v>1065566884</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="91"/>
-      <c r="B22" s="80" t="s">
+      <c r="A22" s="89"/>
+      <c r="B22" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="78">
         <v>1099032016</v>
       </c>
     </row>
     <row r="23" ht="25.75" spans="1:3">
-      <c r="A23" s="91"/>
-      <c r="B23" s="80" t="s">
+      <c r="A23" s="89"/>
+      <c r="B23" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="80">
+      <c r="C23" s="78">
         <v>1558341144</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="91"/>
-      <c r="B24" s="80" t="s">
+      <c r="A24" s="89"/>
+      <c r="B24" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="80">
+      <c r="C24" s="78">
         <v>1116450350</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="92"/>
-      <c r="B25" s="71" t="s">
+      <c r="A25" s="90"/>
+      <c r="B25" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="71">
+      <c r="C25" s="69">
         <v>1281846273</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:3">
-      <c r="A26" s="92"/>
-      <c r="B26" s="71" t="s">
+      <c r="A26" s="90"/>
+      <c r="B26" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="71">
+      <c r="C26" s="69">
         <v>1091749090</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:3">
-      <c r="A27" s="88" t="s">
+      <c r="A27" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="69" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="93"/>
-      <c r="B28" s="94" t="s">
+      <c r="A28" s="91"/>
+      <c r="B28" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="94">
+      <c r="C28" s="92">
         <v>1094733787</v>
       </c>
     </row>
     <row r="29" ht="25.75" spans="1:3">
-      <c r="A29" s="95"/>
-      <c r="B29" s="76" t="s">
+      <c r="A29" s="93"/>
+      <c r="B29" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="74">
         <v>1555995873</v>
       </c>
     </row>
     <row r="30" ht="25.75" spans="1:3">
-      <c r="A30" s="95"/>
-      <c r="B30" s="90" t="s">
+      <c r="A30" s="93"/>
+      <c r="B30" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="90">
+      <c r="C30" s="88">
         <v>1143466824</v>
       </c>
     </row>
     <row r="31" ht="50.75" spans="1:3">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="74" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" ht="25.75" spans="1:3">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="90">
+      <c r="C32" s="88">
         <v>1558802079</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:3">
-      <c r="A33" s="95"/>
-      <c r="B33" s="76" t="s">
+      <c r="A33" s="93"/>
+      <c r="B33" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="76">
+      <c r="C33" s="74">
         <v>1027276293</v>
       </c>
     </row>
     <row r="34" ht="50.75" spans="2:3">
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="94" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="80" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" ht="25.75" spans="2:3">
-      <c r="B35" s="97" t="s">
+      <c r="B35" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="76">
+      <c r="C35" s="74">
         <v>1146676126</v>
       </c>
     </row>
@@ -2785,93 +2761,93 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="83"/>
+      <c r="A2" s="81"/>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="82" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="16.25" spans="1:1">
-      <c r="A4" s="83"/>
+      <c r="A4" s="81"/>
     </row>
     <row r="5" ht="15.25" spans="1:3">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="67" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:3">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="86">
+      <c r="C6" s="84">
         <v>1080801266</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:3">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="84" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:3">
-      <c r="A8" s="87" t="s">
+      <c r="A8" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="84">
         <v>1156602331</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="88" t="s">
+      <c r="A9" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="69">
         <v>1003838875</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:3">
-      <c r="A10" s="87" t="s">
+      <c r="A10" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="86">
+      <c r="C10" s="84">
         <v>1115300028</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="90">
+      <c r="C11" s="88">
         <v>1009236553</v>
       </c>
     </row>
@@ -2904,152 +2880,152 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" ht="25.75" spans="1:5">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="80">
+      <c r="B2" s="78">
         <v>1080801266</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="78" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
-      <c r="A3" s="79" t="s">
+      <c r="A3" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="80" t="s">
+      <c r="D3" s="78" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="78" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:5">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="80">
+      <c r="B4" s="78">
         <v>1156602331</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="78" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="1:5">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="80">
+      <c r="B5" s="78">
         <v>1003838875</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="78" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="78" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:5">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="80">
+      <c r="B6" s="78">
         <v>1115300028</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="78" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:5">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="80">
+      <c r="B7" s="78">
         <v>1009236553</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="78" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:5">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="78" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" ht="50.75" spans="1:4">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="82">
+      <c r="B9" s="80">
         <v>1021048699</v>
       </c>
-      <c r="C9" s="82" t="s">
+      <c r="C9" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="82" t="s">
+      <c r="D9" s="80" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3070,616 +3046,616 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.0909090909091" style="53" customWidth="1"/>
+    <col min="1" max="1" width="39.0909090909091" style="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="67" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" ht="15.25" spans="1:5">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="69">
         <v>1146120814</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="71" t="s">
+      <c r="D2" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="71" t="s">
+      <c r="E2" s="69" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:5">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="69" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" ht="25.75" spans="1:5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="71">
         <v>1099683271</v>
       </c>
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="71" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
-      <c r="A6" s="70" t="s">
+      <c r="A6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="69" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:5">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="69">
         <v>1500537534</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="69" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:5">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="69">
         <v>1090712285</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="71" t="s">
+      <c r="E8" s="69" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:5">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="69" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="71" t="s">
+      <c r="E9" s="69" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="69">
         <v>1032869389</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D10" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="69" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:5">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="73">
+      <c r="B11" s="71">
         <v>1122819199</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:5">
-      <c r="A12" s="70" t="s">
+      <c r="A12" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="71">
+      <c r="B12" s="69">
         <v>1001753537</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="69" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:5">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="73" t="s">
+      <c r="C13" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="73" t="s">
+      <c r="D13" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="71" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" ht="50.75" spans="1:5">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="68" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D14" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="71" t="s">
+      <c r="E14" s="69" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:5">
-      <c r="A15" s="70" t="s">
+      <c r="A15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="71">
+      <c r="B15" s="69">
         <v>1013260200</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D15" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="71" t="s">
+      <c r="E15" s="69" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="71">
+      <c r="B16" s="69">
         <v>1283104485</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D16" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="71" t="s">
+      <c r="E16" s="69" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:5">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="71">
+      <c r="B17" s="69">
         <v>1065566884</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D17" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="71" t="s">
+      <c r="E17" s="69" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:5">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="73">
+      <c r="B18" s="71">
         <v>1099032016</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="73" t="s">
+      <c r="E18" s="71" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:5">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="71">
+      <c r="B19" s="69">
         <v>1558341144</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="71" t="s">
+      <c r="E19" s="69" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:5">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="71">
+      <c r="B20" s="69">
         <v>1116450350</v>
       </c>
-      <c r="C20" s="71" t="s">
+      <c r="C20" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="69" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:5">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="71">
+      <c r="B21" s="69">
         <v>1281846273</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="71" t="s">
+      <c r="E21" s="69" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:5">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="73">
+      <c r="B22" s="71">
         <v>1091749090</v>
       </c>
-      <c r="C22" s="73" t="s">
+      <c r="C22" s="71" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="73" t="s">
+      <c r="D22" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E22" s="71" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" ht="50.75" spans="1:5">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="74" t="s">
+      <c r="D23" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="75"/>
+      <c r="E23" s="73"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="71">
+      <c r="B24" s="69">
         <v>1094733787</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="71" t="s">
+      <c r="E24" s="69" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:5">
-      <c r="A25" s="72" t="s">
+      <c r="A25" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="73">
+      <c r="B25" s="71">
         <v>1555995873</v>
       </c>
-      <c r="C25" s="73" t="s">
+      <c r="C25" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="73" t="s">
+      <c r="D25" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="73" t="s">
+      <c r="E25" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:5">
-      <c r="A26" s="72" t="s">
+      <c r="A26" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="73">
+      <c r="B26" s="71">
         <v>1143466824</v>
       </c>
-      <c r="C26" s="73" t="s">
+      <c r="C26" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="73" t="s">
+      <c r="E26" s="71" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:5">
-      <c r="A27" s="72" t="s">
+      <c r="A27" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="73" t="s">
+      <c r="B27" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="73" t="s">
+      <c r="D27" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="73" t="s">
+      <c r="E27" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" ht="63.25" spans="1:5">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="69">
         <v>1558802079</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="E28" s="69" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" ht="50.75" spans="1:5">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="71">
+      <c r="B29" s="69">
         <v>1027276293</v>
       </c>
-      <c r="C29" s="71" t="s">
+      <c r="C29" s="69" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="69" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" ht="50.75" spans="1:5">
-      <c r="A30" s="72" t="s">
+      <c r="A30" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="73" t="s">
+      <c r="B30" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="73" t="s">
+      <c r="C30" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="73" t="s">
+      <c r="D30" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="73" t="s">
+      <c r="E30" s="71" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" ht="25.75" spans="1:5">
-      <c r="A31" s="72" t="s">
+      <c r="A31" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="73">
+      <c r="B31" s="71">
         <v>1146676126</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="73" t="s">
+      <c r="D31" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="73" t="s">
+      <c r="E31" s="71" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" ht="25.75" spans="1:5">
-      <c r="A32" s="70" t="s">
+      <c r="A32" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="71">
+      <c r="B32" s="69">
         <v>1099683271</v>
       </c>
-      <c r="C32" s="71" t="s">
+      <c r="C32" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="76" t="s">
+      <c r="E32" s="74" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:5">
-      <c r="A33" s="72" t="s">
+      <c r="A33" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="73">
+      <c r="B33" s="71">
         <v>1122819199</v>
       </c>
-      <c r="C33" s="73" t="s">
+      <c r="C33" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="73" t="s">
+      <c r="D33" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="73" t="s">
+      <c r="E33" s="71" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" ht="25.75" spans="1:5">
-      <c r="A34" s="72" t="s">
+      <c r="A34" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="73">
+      <c r="B34" s="71">
         <v>1551611806</v>
       </c>
-      <c r="C34" s="73" t="s">
+      <c r="C34" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="73" t="s">
+      <c r="D34" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="71" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" ht="25.75" spans="1:5">
-      <c r="A35" s="72" t="s">
+      <c r="A35" s="70" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="73">
+      <c r="B35" s="71">
         <v>1559364454</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="73" t="s">
+      <c r="D35" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="73" t="s">
+      <c r="E35" s="71" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:5">
-      <c r="A36" s="72" t="s">
+      <c r="A36" s="70" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="71" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="73" t="s">
+      <c r="C36" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="74" t="s">
+      <c r="D36" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="75"/>
+      <c r="E36" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3710,161 +3686,161 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" ht="17" spans="1:3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
     </row>
     <row r="5" ht="15.25" spans="1:3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="57">
         <v>1147318485</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="58"/>
-      <c r="B8" s="60" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="58">
         <v>1064942383</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="58"/>
-      <c r="B9" s="59" t="s">
+      <c r="A9" s="56"/>
+      <c r="B9" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="59">
+      <c r="C9" s="57">
         <v>1008361694</v>
       </c>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="63" t="s">
+      <c r="C12" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="61" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="62" t="s">
+      <c r="E12" s="60" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="62" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="65">
+      <c r="B13" s="63">
         <v>1147318485</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="65" t="s">
+      <c r="E13" s="63" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="64" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="65">
         <v>1064942383</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="65" t="s">
+      <c r="E14" s="63" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="65">
+      <c r="B15" s="63">
         <v>1008361694</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="65" t="s">
+      <c r="E15" s="63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3879,7 +3855,7 @@
   <sheetPr/>
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A124" workbookViewId="0">
       <selection activeCell="C127" sqref="C127:F148"/>
     </sheetView>
   </sheetViews>
@@ -5349,128 +5325,128 @@
       </c>
     </row>
     <row r="79" ht="15.25" spans="3:6">
-      <c r="C79" s="18">
+      <c r="C79" s="39">
         <v>10332517</v>
       </c>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="40" t="s">
+      <c r="E79" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="40" t="s">
+      <c r="F79" s="41" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="80" ht="15.25" spans="3:6">
-      <c r="C80" s="18">
+      <c r="C80" s="39">
         <v>10332557</v>
       </c>
-      <c r="D80" s="39" t="s">
+      <c r="D80" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="E80" s="40" t="s">
+      <c r="E80" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F80" s="40" t="s">
+      <c r="F80" s="41" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="81" ht="15.25" spans="3:6">
-      <c r="C81" s="18">
+      <c r="C81" s="39">
         <v>10332639</v>
       </c>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="E81" s="40" t="s">
+      <c r="E81" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="F81" s="40" t="s">
+      <c r="F81" s="41" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82" ht="15.25" spans="3:6">
-      <c r="C82" s="18">
+      <c r="C82" s="39">
         <v>10331792</v>
       </c>
-      <c r="D82" s="39" t="s">
+      <c r="D82" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="E82" s="40" t="s">
+      <c r="E82" s="41" t="s">
         <v>206</v>
       </c>
-      <c r="F82" s="40" t="s">
+      <c r="F82" s="41" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83" ht="15.25" spans="3:6">
-      <c r="C83" s="18">
+      <c r="C83" s="39">
         <v>10332552</v>
       </c>
-      <c r="D83" s="39" t="s">
+      <c r="D83" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="40" t="s">
+      <c r="E83" s="41" t="s">
         <v>208</v>
       </c>
-      <c r="F83" s="40" t="s">
+      <c r="F83" s="41" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="84" ht="25.75" spans="3:6">
-      <c r="C84" s="18">
+      <c r="C84" s="39">
         <v>10332631</v>
       </c>
-      <c r="D84" s="39" t="s">
+      <c r="D84" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="E84" s="40" t="s">
+      <c r="E84" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="40" t="s">
+      <c r="F84" s="41" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="85" ht="15.25" spans="3:6">
-      <c r="C85" s="18">
+      <c r="C85" s="39">
         <v>10332480</v>
       </c>
-      <c r="D85" s="39" t="s">
+      <c r="D85" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="E85" s="40" t="s">
+      <c r="E85" s="41" t="s">
         <v>213</v>
       </c>
-      <c r="F85" s="40" t="s">
+      <c r="F85" s="41" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="86" ht="29.75" spans="3:6">
-      <c r="C86" s="18">
+      <c r="C86" s="39">
         <v>10332544</v>
       </c>
-      <c r="D86" s="39" t="s">
+      <c r="D86" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="40" t="s">
+      <c r="E86" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="40" t="s">
+      <c r="F86" s="41" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" ht="15.25" spans="3:6">
-      <c r="C87" s="18">
+      <c r="C87" s="39">
         <v>10332681</v>
       </c>
-      <c r="D87" s="39" t="s">
+      <c r="D87" s="40" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="40" t="s">
+      <c r="E87" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="F87" s="40" t="s">
+      <c r="F87" s="41" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5653,202 +5629,202 @@
     </row>
     <row r="101" ht="15.25"/>
     <row r="102" ht="15.25" spans="3:8">
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D102" s="42" t="s">
+      <c r="D102" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="E102" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="F102" s="43" t="s">
+      <c r="F102" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="G102" s="42" t="s">
+      <c r="G102" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="H102" s="42" t="s">
+      <c r="H102" s="43" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="103" ht="15.25" spans="3:8">
-      <c r="C103" s="44">
+      <c r="C103" s="45">
         <v>10332517</v>
       </c>
-      <c r="D103" s="45" t="s">
+      <c r="D103" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="E103" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F103" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G103" s="47" t="s">
+      <c r="E103" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F103" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G103" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="H103" s="47" t="s">
+      <c r="H103" s="48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="104" ht="15.25" spans="3:8">
-      <c r="C104" s="44">
+      <c r="C104" s="45">
         <v>10332557</v>
       </c>
-      <c r="D104" s="45" t="s">
+      <c r="D104" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="E104" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F104" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G104" s="47" t="s">
+      <c r="E104" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F104" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G104" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H104" s="47" t="s">
+      <c r="H104" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="105" ht="15.25" spans="3:8">
-      <c r="C105" s="44">
+      <c r="C105" s="45">
         <v>10332639</v>
       </c>
-      <c r="D105" s="45" t="s">
+      <c r="D105" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="E105" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F105" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G105" s="47" t="s">
+      <c r="E105" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F105" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G105" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H105" s="47" t="s">
+      <c r="H105" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106" ht="15.25" spans="3:8">
-      <c r="C106" s="44">
+      <c r="C106" s="45">
         <v>10331792</v>
       </c>
-      <c r="D106" s="45" t="s">
+      <c r="D106" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="E106" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F106" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G106" s="47" t="s">
+      <c r="E106" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F106" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G106" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="H106" s="47" t="s">
+      <c r="H106" s="48" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="107" ht="15.25" spans="3:8">
-      <c r="C107" s="44">
+      <c r="C107" s="45">
         <v>10332552</v>
       </c>
-      <c r="D107" s="45" t="s">
+      <c r="D107" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F107" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G107" s="47" t="s">
+      <c r="E107" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F107" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G107" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="H107" s="47" t="s">
+      <c r="H107" s="48" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="108" ht="15.25" spans="3:8">
-      <c r="C108" s="44">
+      <c r="C108" s="45">
         <v>10332631</v>
       </c>
-      <c r="D108" s="45" t="s">
+      <c r="D108" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E108" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F108" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G108" s="47" t="s">
+      <c r="E108" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F108" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G108" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H108" s="47" t="s">
+      <c r="H108" s="48" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="109" ht="15.25" spans="3:8">
-      <c r="C109" s="44">
+      <c r="C109" s="45">
         <v>10332480</v>
       </c>
-      <c r="D109" s="45" t="s">
+      <c r="D109" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="E109" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F109" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G109" s="47" t="s">
+      <c r="E109" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F109" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G109" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="H109" s="47" t="s">
+      <c r="H109" s="48" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="110" ht="15.25" spans="3:8">
-      <c r="C110" s="44">
+      <c r="C110" s="45">
         <v>10332544</v>
       </c>
-      <c r="D110" s="45" t="s">
+      <c r="D110" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="E110" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F110" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G110" s="47" t="s">
+      <c r="E110" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F110" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G110" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H110" s="47" t="s">
+      <c r="H110" s="48" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="111" ht="15.25" spans="3:8">
-      <c r="C111" s="44">
+      <c r="C111" s="45">
         <v>10332681</v>
       </c>
-      <c r="D111" s="45" t="s">
+      <c r="D111" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="E111" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F111" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G111" s="47" t="s">
+      <c r="E111" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F111" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G111" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="H111" s="47" t="s">
+      <c r="H111" s="48" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5859,10 +5835,10 @@
       <c r="D112" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F112" s="46">
+      <c r="E112" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F112" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G112" s="34" t="s">
@@ -5879,10 +5855,10 @@
       <c r="D113" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F113" s="46">
+      <c r="E113" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F113" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G113" s="34" t="s">
@@ -5899,10 +5875,10 @@
       <c r="D114" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E114" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F114" s="46">
+      <c r="E114" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F114" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G114" s="34" t="s">
@@ -5919,10 +5895,10 @@
       <c r="D115" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E115" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F115" s="46">
+      <c r="E115" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F115" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G115" s="34" t="s">
@@ -5939,10 +5915,10 @@
       <c r="D116" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="E116" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F116" s="46">
+      <c r="E116" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F116" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G116" s="34" t="s">
@@ -5959,10 +5935,10 @@
       <c r="D117" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F117" s="46">
+      <c r="E117" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F117" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G117" s="34" t="s">
@@ -5979,10 +5955,10 @@
       <c r="D118" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E118" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F118" s="46">
+      <c r="E118" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F118" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G118" s="34" t="s">
@@ -5999,10 +5975,10 @@
       <c r="D119" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="E119" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F119" s="46">
+      <c r="E119" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F119" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G119" s="34" t="s">
@@ -6019,10 +5995,10 @@
       <c r="D120" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="E120" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F120" s="46">
+      <c r="E120" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F120" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G120" s="34" t="s">
@@ -6039,10 +6015,10 @@
       <c r="D121" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F121" s="46">
+      <c r="E121" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F121" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G121" s="34" t="s">
@@ -6059,10 +6035,10 @@
       <c r="D122" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="E122" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F122" s="46">
+      <c r="E122" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F122" s="47">
         <v>0.708333333333333</v>
       </c>
       <c r="G122" s="34" t="s">
@@ -6074,22 +6050,22 @@
     </row>
     <row r="125" ht="15.25"/>
     <row r="126" ht="15.25" spans="3:8">
-      <c r="C126" s="41" t="s">
+      <c r="C126" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="D126" s="42" t="s">
+      <c r="D126" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="E126" s="43" t="s">
+      <c r="E126" s="44" t="s">
         <v>220</v>
       </c>
-      <c r="F126" s="43" t="s">
+      <c r="F126" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="G126" s="42" t="s">
+      <c r="G126" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="H126" s="42" t="s">
+      <c r="H126" s="43" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6097,442 +6073,442 @@
       <c r="A127" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="44">
+      <c r="C127" s="45">
         <v>10332557</v>
       </c>
-      <c r="D127" s="48" t="s">
+      <c r="D127" s="49" t="s">
         <v>202</v>
       </c>
-      <c r="E127" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F127" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G127" s="47" t="s">
+      <c r="E127" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F127" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G127" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H127" s="47" t="s">
+      <c r="H127" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="128" ht="15.25" spans="3:8">
-      <c r="C128" s="44">
+      <c r="C128" s="45">
         <v>10332554</v>
       </c>
-      <c r="D128" s="45" t="s">
+      <c r="D128" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F128" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G128" s="47" t="s">
+      <c r="E128" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F128" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G128" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="H128" s="47" t="s">
+      <c r="H128" s="48" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="129" ht="15.25" spans="3:8">
-      <c r="C129" s="44">
+      <c r="C129" s="45">
         <v>10332553</v>
       </c>
-      <c r="D129" s="45" t="s">
+      <c r="D129" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E129" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F129" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G129" s="47" t="s">
+      <c r="E129" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F129" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G129" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="H129" s="47" t="s">
+      <c r="H129" s="48" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="130" ht="15.25" spans="3:8">
-      <c r="C130" s="44">
+      <c r="C130" s="45">
         <v>10332552</v>
       </c>
-      <c r="D130" s="48" t="s">
+      <c r="D130" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F130" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G130" s="47" t="s">
+      <c r="E130" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F130" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G130" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="H130" s="47" t="s">
+      <c r="H130" s="48" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="131" ht="15.25" spans="3:8">
-      <c r="C131" s="44">
+      <c r="C131" s="45">
         <v>10332639</v>
       </c>
-      <c r="D131" s="48" t="s">
+      <c r="D131" s="49" t="s">
         <v>204</v>
       </c>
-      <c r="E131" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F131" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G131" s="47" t="s">
+      <c r="E131" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F131" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G131" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H131" s="47" t="s">
+      <c r="H131" s="48" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="132" ht="15.25" spans="3:8">
-      <c r="C132" s="44">
+      <c r="C132" s="45">
         <v>10331792</v>
       </c>
-      <c r="D132" s="48" t="s">
+      <c r="D132" s="49" t="s">
         <v>205</v>
       </c>
-      <c r="E132" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F132" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G132" s="47" t="s">
+      <c r="E132" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F132" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G132" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="H132" s="47" t="s">
+      <c r="H132" s="48" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="133" ht="15.25" spans="3:8">
-      <c r="C133" s="44">
+      <c r="C133" s="45">
         <v>10332544</v>
       </c>
-      <c r="D133" s="48" t="s">
+      <c r="D133" s="49" t="s">
         <v>215</v>
       </c>
-      <c r="E133" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F133" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G133" s="47" t="s">
+      <c r="E133" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F133" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G133" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H133" s="47" t="s">
+      <c r="H133" s="48" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="134" ht="15.25" spans="3:8">
-      <c r="C134" s="44">
+      <c r="C134" s="45">
         <v>10332517</v>
       </c>
-      <c r="D134" s="48" t="s">
+      <c r="D134" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="E134" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F134" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G134" s="47" t="s">
+      <c r="E134" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F134" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G134" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="H134" s="47" t="s">
+      <c r="H134" s="48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="135" ht="15.25" spans="3:8">
-      <c r="C135" s="44">
+      <c r="C135" s="45">
         <v>10332480</v>
       </c>
-      <c r="D135" s="48" t="s">
+      <c r="D135" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="E135" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F135" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G135" s="47" t="s">
+      <c r="E135" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F135" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G135" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="H135" s="47" t="s">
+      <c r="H135" s="48" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="136" ht="15.25" spans="3:8">
-      <c r="C136" s="44">
+      <c r="C136" s="45">
         <v>10332681</v>
       </c>
-      <c r="D136" s="48" t="s">
+      <c r="D136" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="E136" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F136" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G136" s="47" t="s">
+      <c r="E136" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F136" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G136" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="H136" s="47" t="s">
+      <c r="H136" s="48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="137" spans="3:8">
-      <c r="C137" s="44">
+    <row r="137" ht="15.25" spans="3:8">
+      <c r="C137" s="45">
         <v>10332631</v>
       </c>
-      <c r="D137" s="48" t="s">
+      <c r="D137" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="E137" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F137" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G137" s="47" t="s">
+      <c r="E137" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F137" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G137" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H137" s="47" t="s">
+      <c r="H137" s="48" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="138" spans="3:8">
-      <c r="C138" s="49">
+    <row r="138" ht="15.25" spans="3:8">
+      <c r="C138" s="45">
         <v>10332567</v>
       </c>
-      <c r="D138" s="50" t="s">
+      <c r="D138" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="E138" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F138" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G138" s="51" t="s">
+      <c r="E138" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F138" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G138" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="H138" s="51" t="s">
+      <c r="H138" s="48" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="3:8">
-      <c r="C139" s="49">
+    <row r="139" ht="15.25" spans="3:8">
+      <c r="C139" s="45">
         <v>10332555</v>
       </c>
-      <c r="D139" s="50" t="s">
+      <c r="D139" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="E139" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F139" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G139" s="51" t="s">
+      <c r="E139" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F139" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G139" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="H139" s="51" t="s">
+      <c r="H139" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="140" spans="3:8">
-      <c r="C140" s="49">
+    <row r="140" ht="15.25" spans="3:8">
+      <c r="C140" s="45">
         <v>10332548</v>
       </c>
-      <c r="D140" s="50" t="s">
+      <c r="D140" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E140" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F140" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G140" s="51" t="s">
+      <c r="E140" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F140" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G140" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H140" s="51" t="s">
+      <c r="H140" s="48" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="3:8">
-      <c r="C141" s="49">
+    <row r="141" ht="15.25" spans="3:8">
+      <c r="C141" s="45">
         <v>10332547</v>
       </c>
-      <c r="D141" s="50" t="s">
+      <c r="D141" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F141" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G141" s="51" t="s">
+      <c r="E141" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F141" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G141" s="48" t="s">
         <v>192</v>
       </c>
-      <c r="H141" s="51" t="s">
+      <c r="H141" s="48" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="3:8">
-      <c r="C142" s="49">
+    <row r="142" ht="15.25" spans="3:8">
+      <c r="C142" s="45">
         <v>10332550</v>
       </c>
-      <c r="D142" s="50" t="s">
+      <c r="D142" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="E142" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F142" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G142" s="51" t="s">
+      <c r="E142" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F142" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G142" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H142" s="51" t="s">
+      <c r="H142" s="48" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="3:8">
-      <c r="C143" s="49">
+    <row r="143" ht="15.25" spans="3:8">
+      <c r="C143" s="45">
         <v>10332515</v>
       </c>
-      <c r="D143" s="50" t="s">
+      <c r="D143" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F143" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G143" s="51" t="s">
+      <c r="E143" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F143" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G143" s="48" t="s">
         <v>189</v>
       </c>
-      <c r="H143" s="51" t="s">
+      <c r="H143" s="48" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="144" spans="3:8">
-      <c r="C144" s="49">
+    <row r="144" ht="15.25" spans="3:8">
+      <c r="C144" s="45">
         <v>10332482</v>
       </c>
-      <c r="D144" s="50" t="s">
+      <c r="D144" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E144" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F144" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G144" s="51" t="s">
+      <c r="E144" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F144" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G144" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="H144" s="51" t="s">
+      <c r="H144" s="48" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="3:8">
-      <c r="C145" s="49">
+    <row r="145" ht="15.25" spans="3:8">
+      <c r="C145" s="45">
         <v>10332481</v>
       </c>
-      <c r="D145" s="50" t="s">
+      <c r="D145" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E145" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F145" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G145" s="51" t="s">
+      <c r="E145" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F145" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G145" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="H145" s="51" t="s">
+      <c r="H145" s="48" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="146" spans="3:8">
-      <c r="C146" s="49">
+    <row r="146" ht="15.25" spans="3:8">
+      <c r="C146" s="45">
         <v>10332478</v>
       </c>
-      <c r="D146" s="50" t="s">
+      <c r="D146" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E146" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F146" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G146" s="51" t="s">
+      <c r="E146" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F146" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G146" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="H146" s="51" t="s">
+      <c r="H146" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="3:8">
-      <c r="C147" s="49">
+    <row r="147" ht="15.25" spans="3:8">
+      <c r="C147" s="45">
         <v>10332513</v>
       </c>
-      <c r="D147" s="50" t="s">
+      <c r="D147" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E147" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F147" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G147" s="51" t="s">
+      <c r="E147" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F147" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G147" s="48" t="s">
         <v>195</v>
       </c>
-      <c r="H147" s="51" t="s">
+      <c r="H147" s="48" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="148" spans="3:8">
-      <c r="C148" s="49">
+    <row r="148" ht="15.25" spans="3:8">
+      <c r="C148" s="45">
         <v>10332571</v>
       </c>
-      <c r="D148" s="50" t="s">
+      <c r="D148" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="E148" s="46">
-        <v>0.375</v>
-      </c>
-      <c r="F148" s="46">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G148" s="51" t="s">
+      <c r="E148" s="47">
+        <v>0.375</v>
+      </c>
+      <c r="F148" s="47">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G148" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="H148" s="51" t="s">
+      <c r="H148" s="48" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6556,7 +6532,7 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15:E20"/>
     </sheetView>
   </sheetViews>
@@ -6840,7 +6816,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" ht="15.25" spans="2:8">
+    <row r="14" spans="2:8">
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -6862,14 +6838,14 @@
       <c r="E15" s="16">
         <v>0.75</v>
       </c>
-      <c r="F15" s="98" t="s">
-        <v>249</v>
+      <c r="F15" s="15">
+        <v>201080229991</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>223</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:8">
@@ -6885,14 +6861,14 @@
       <c r="E16" s="16">
         <v>0.75</v>
       </c>
-      <c r="F16" s="98" t="s">
+      <c r="F16" s="15">
+        <v>201005599833</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="H16" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="17" ht="15.25" spans="2:8">
@@ -6908,14 +6884,14 @@
       <c r="E17" s="16">
         <v>0.75</v>
       </c>
-      <c r="F17" s="99" t="s">
-        <v>254</v>
+      <c r="F17" s="20">
+        <v>201003838875</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" ht="15.25" spans="2:8">
@@ -6931,14 +6907,14 @@
       <c r="E18" s="16">
         <v>0.75</v>
       </c>
-      <c r="F18" s="98" t="s">
-        <v>257</v>
+      <c r="F18" s="15">
+        <v>201115300028</v>
       </c>
       <c r="G18" s="17" t="s">
         <v>223</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" ht="15.25" spans="2:8">
@@ -6946,7 +6922,7 @@
         <v>10332451</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D19" s="16">
         <v>0.375</v>
@@ -6954,14 +6930,14 @@
       <c r="E19" s="16">
         <v>0.75</v>
       </c>
-      <c r="F19" s="99" t="s">
-        <v>259</v>
+      <c r="F19" s="20">
+        <v>201557236176</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>223</v>
       </c>
       <c r="H19" s="21" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="2:8">
@@ -6969,7 +6945,7 @@
         <v>10332650</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D20" s="16">
         <v>0.375</v>
@@ -6977,14 +6953,14 @@
       <c r="E20" s="16">
         <v>0.75</v>
       </c>
-      <c r="F20" s="98" t="s">
-        <v>262</v>
+      <c r="F20" s="15">
+        <v>201557944746</v>
       </c>
       <c r="G20" s="17" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H20" s="17" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="3:6">
@@ -7108,13 +7084,13 @@
         <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="100" t="s">
         <v>259</v>
       </c>
+      <c r="F30" s="96" t="s">
+        <v>260</v>
+      </c>
       <c r="G30" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -7122,19 +7098,19 @@
         <v>10332650</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="100" t="s">
+        <v>261</v>
+      </c>
+      <c r="F31" s="96" t="s">
         <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7185,10 +7161,10 @@
         <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>231</v>
@@ -7197,7 +7173,7 @@
         <v>137</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
@@ -7211,16 +7187,16 @@
         <v>1147318485</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>126</v>
@@ -7237,10 +7213,10 @@
         <v>1064942383</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>154</v>
@@ -7263,10 +7239,10 @@
         <v>1008361694</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>130</v>

--- a/Accounts-Schedules/تدريب 12-5-2025 تجمع.xlsx
+++ b/Accounts-Schedules/تدريب 12-5-2025 تجمع.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="280">
   <si>
     <t>Below is the list of trainees scheduled for training at Airalo on Monday, May 12th, from 9 AM to 5 PM. Please ensure that if you are unable to reach any of the candidates listed below, you reply to this thread to avoid any transportation issues.</t>
   </si>
@@ -786,6 +786,9 @@
     <t>Route</t>
   </si>
   <si>
+    <t>June 2nd</t>
+  </si>
+  <si>
     <t>واتر واي</t>
   </si>
   <si>
@@ -844,6 +847,36 @@
   </si>
   <si>
     <t>محمود عبد العليم</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>19:00-4:00</t>
+  </si>
+  <si>
+    <t>Off</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdelalim</t>
+  </si>
+  <si>
+    <t>مدينة نصر ميدان رابعة</t>
+  </si>
+  <si>
+    <t>Amen Abdalhay</t>
   </si>
 </sst>
 </file>
@@ -859,7 +892,7 @@
     <numFmt numFmtId="179" formatCode="00000000000"/>
     <numFmt numFmtId="180" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +907,18 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE7E6E6"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -893,12 +938,6 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1099,7 +1138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1108,13 +1147,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFD9E1F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF595959"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,7 +1410,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1410,6 +1461,69 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -1436,6 +1550,73 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
@@ -1453,14 +1634,38 @@
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1510,35 +1715,7 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1703,76 +1880,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1781,10 +1952,10 @@
     <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1793,10 +1964,10 @@
     <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1805,10 +1976,10 @@
     <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1817,10 +1988,10 @@
     <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1829,11 +2000,17 @@
     <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1844,260 +2021,326 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2431,315 +2674,315 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="103" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="81"/>
+      <c r="A2" s="103"/>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="16.25" spans="1:1">
-      <c r="A4" s="81"/>
+      <c r="A4" s="103"/>
     </row>
     <row r="5" ht="15.25" spans="1:3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="89" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="78" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="78">
+      <c r="C6" s="100">
         <v>1146120814</v>
       </c>
     </row>
     <row r="7" ht="38.25" spans="1:3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="78" t="s">
+      <c r="A7" s="111"/>
+      <c r="B7" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="100" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="78" t="s">
+      <c r="A8" s="111"/>
+      <c r="B8" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="100" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="78" t="s">
+      <c r="A9" s="111"/>
+      <c r="B9" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="78">
+      <c r="C9" s="100">
         <v>1099683271</v>
       </c>
     </row>
     <row r="10" ht="50.75" spans="1:3">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="100" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="78">
+      <c r="C11" s="100">
         <v>1500537534</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:3">
-      <c r="A12" s="77" t="s">
+      <c r="A12" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="100">
         <v>1090712285</v>
       </c>
     </row>
     <row r="13" ht="38.25" spans="1:3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="78" t="s">
+      <c r="A13" s="111"/>
+      <c r="B13" s="100" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="100" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.75" spans="1:3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="78" t="s">
+      <c r="A14" s="111"/>
+      <c r="B14" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="78">
+      <c r="C14" s="100">
         <v>1032869389</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="78" t="s">
+      <c r="A15" s="111"/>
+      <c r="B15" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="100">
         <v>1122819199</v>
       </c>
     </row>
     <row r="16" ht="63.25" spans="1:3">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="78">
+      <c r="C16" s="100">
         <v>1001753537</v>
       </c>
     </row>
     <row r="17" ht="50.75" spans="1:3">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="100" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" ht="50.75" spans="1:3">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="100" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:3">
-      <c r="A19" s="77" t="s">
+      <c r="A19" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="78">
+      <c r="C19" s="100">
         <v>1013260200</v>
       </c>
     </row>
     <row r="20" ht="15.25" spans="1:3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="78" t="s">
+      <c r="A20" s="111"/>
+      <c r="B20" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="78">
+      <c r="C20" s="100">
         <v>1283104485</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="111"/>
+      <c r="B21" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="78">
+      <c r="C21" s="100">
         <v>1065566884</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="78" t="s">
+      <c r="A22" s="111"/>
+      <c r="B22" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="78">
+      <c r="C22" s="100">
         <v>1099032016</v>
       </c>
     </row>
     <row r="23" ht="25.75" spans="1:3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="111"/>
+      <c r="B23" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="78">
+      <c r="C23" s="100">
         <v>1558341144</v>
       </c>
     </row>
     <row r="24" ht="25.75" spans="1:3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="78" t="s">
+      <c r="A24" s="111"/>
+      <c r="B24" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="78">
+      <c r="C24" s="100">
         <v>1116450350</v>
       </c>
     </row>
     <row r="25" ht="38.25" spans="1:3">
-      <c r="A25" s="90"/>
-      <c r="B25" s="69" t="s">
+      <c r="A25" s="112"/>
+      <c r="B25" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="69">
+      <c r="C25" s="91">
         <v>1281846273</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:3">
-      <c r="A26" s="90"/>
-      <c r="B26" s="69" t="s">
+      <c r="A26" s="112"/>
+      <c r="B26" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="69">
+      <c r="C26" s="91">
         <v>1091749090</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:3">
-      <c r="A27" s="86" t="s">
+      <c r="A27" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="91" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="91" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" ht="25.75" spans="1:3">
-      <c r="A28" s="91"/>
-      <c r="B28" s="92" t="s">
+      <c r="A28" s="113"/>
+      <c r="B28" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="92">
+      <c r="C28" s="114">
         <v>1094733787</v>
       </c>
     </row>
     <row r="29" ht="25.75" spans="1:3">
-      <c r="A29" s="93"/>
-      <c r="B29" s="74" t="s">
+      <c r="A29" s="115"/>
+      <c r="B29" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="74">
+      <c r="C29" s="96">
         <v>1555995873</v>
       </c>
     </row>
     <row r="30" ht="25.75" spans="1:3">
-      <c r="A30" s="93"/>
-      <c r="B30" s="88" t="s">
+      <c r="A30" s="115"/>
+      <c r="B30" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="88">
+      <c r="C30" s="110">
         <v>1143466824</v>
       </c>
     </row>
     <row r="31" ht="50.75" spans="1:3">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="96" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="32" ht="25.75" spans="1:3">
-      <c r="A32" s="87" t="s">
+      <c r="A32" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="88" t="s">
+      <c r="B32" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="88">
+      <c r="C32" s="110">
         <v>1558802079</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:3">
-      <c r="A33" s="93"/>
-      <c r="B33" s="74" t="s">
+      <c r="A33" s="115"/>
+      <c r="B33" s="96" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="74">
+      <c r="C33" s="96">
         <v>1027276293</v>
       </c>
     </row>
     <row r="34" ht="50.75" spans="2:3">
-      <c r="B34" s="94" t="s">
+      <c r="B34" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="C34" s="80" t="s">
+      <c r="C34" s="102" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="35" ht="25.75" spans="2:3">
-      <c r="B35" s="95" t="s">
+      <c r="B35" s="117" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="74">
+      <c r="C35" s="96">
         <v>1146676126</v>
       </c>
     </row>
@@ -2761,93 +3004,93 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" ht="15.5" spans="1:1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="103" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:1">
-      <c r="A2" s="81"/>
+      <c r="A2" s="103"/>
     </row>
     <row r="3" ht="15" spans="1:1">
-      <c r="A3" s="82" t="s">
+      <c r="A3" s="104" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" ht="16.25" spans="1:1">
-      <c r="A4" s="81"/>
+      <c r="A4" s="103"/>
     </row>
     <row r="5" ht="15.25" spans="1:3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="89" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" ht="25.75" spans="1:3">
-      <c r="A6" s="83"/>
-      <c r="B6" s="84" t="s">
+      <c r="A6" s="105"/>
+      <c r="B6" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="84">
+      <c r="C6" s="106">
         <v>1080801266</v>
       </c>
     </row>
     <row r="7" ht="50.75" spans="1:3">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="106" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="C7" s="106" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" ht="38.25" spans="1:3">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="84">
+      <c r="C8" s="106">
         <v>1156602331</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:3">
-      <c r="A9" s="86" t="s">
+      <c r="A9" s="108" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="91">
         <v>1003838875</v>
       </c>
     </row>
     <row r="10" ht="38.25" spans="1:3">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="107" t="s">
         <v>62</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="106">
         <v>1115300028</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:3">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="96" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="88">
+      <c r="C11" s="110">
         <v>1009236553</v>
       </c>
     </row>
@@ -2880,152 +3123,152 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="98" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="89" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" ht="25.75" spans="1:5">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="78">
+      <c r="B2" s="100">
         <v>1080801266</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="100" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" ht="50.75" spans="1:5">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="100" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="78" t="s">
+      <c r="E3" s="100" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" ht="38.25" spans="1:5">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="78">
+      <c r="B4" s="100">
         <v>1156602331</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="100" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="100" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" ht="38.25" spans="1:5">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="78">
+      <c r="B5" s="100">
         <v>1003838875</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="100" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="6" ht="38.25" spans="1:5">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="100">
         <v>1115300028</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="78" t="s">
+      <c r="D6" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="100" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:5">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="B7" s="78">
+      <c r="B7" s="100">
         <v>1009236553</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="78" t="s">
+      <c r="D7" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="100" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" ht="50.75" spans="1:5">
-      <c r="A8" s="77" t="s">
+      <c r="A8" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="100" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="100" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="9" ht="50.75" spans="1:4">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="80">
+      <c r="B9" s="102">
         <v>1021048699</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="102" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3046,616 +3289,616 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="39.0909090909091" style="51" customWidth="1"/>
+    <col min="1" max="1" width="39.0909090909091" style="73" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.25" spans="1:5">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="89" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" ht="15.25" spans="1:5">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="69">
+      <c r="B2" s="91">
         <v>1146120814</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="69" t="s">
+      <c r="E2" s="91" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" ht="38.25" spans="1:5">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="91" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="50.75" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="69" t="s">
+      <c r="D4" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="91" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="5" ht="25.75" spans="1:5">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="93">
         <v>1099683271</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="93" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="6" ht="50.75" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="91" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="7" ht="25.75" spans="1:5">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="69">
+      <c r="B7" s="91">
         <v>1500537534</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="91" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" ht="25.75" spans="1:5">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="69">
+      <c r="B8" s="91">
         <v>1090712285</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="91" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" ht="38.25" spans="1:5">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="91" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" ht="15.25" spans="1:5">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="69">
+      <c r="B10" s="91">
         <v>1032869389</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="91" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" ht="25.75" spans="1:5">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="71">
+      <c r="B11" s="93">
         <v>1122819199</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="71" t="s">
+      <c r="E11" s="93" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" ht="25.75" spans="1:5">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="69">
+      <c r="B12" s="91">
         <v>1001753537</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="91" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" ht="50.75" spans="1:5">
-      <c r="A13" s="70" t="s">
+      <c r="A13" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="93" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="14" ht="50.75" spans="1:5">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="91" t="s">
         <v>100</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="91" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="15" ht="25.75" spans="1:5">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="69">
+      <c r="B15" s="91">
         <v>1013260200</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="91" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="1:5">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="69">
+      <c r="B16" s="91">
         <v>1283104485</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="91" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" ht="25.75" spans="1:5">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="69">
+      <c r="B17" s="91">
         <v>1065566884</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="91" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="18" ht="25.75" spans="1:5">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="71">
+      <c r="B18" s="93">
         <v>1099032016</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D18" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="93" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" ht="25.75" spans="1:5">
-      <c r="A19" s="68" t="s">
+      <c r="A19" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="69">
+      <c r="B19" s="91">
         <v>1558341144</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="91" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="20" ht="25.75" spans="1:5">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="69">
+      <c r="B20" s="91">
         <v>1116450350</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="91" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="91" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="21" ht="25.75" spans="1:5">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="B21" s="69">
+      <c r="B21" s="91">
         <v>1281846273</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="91" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="22" ht="25.75" spans="1:5">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="71">
+      <c r="B22" s="93">
         <v>1091749090</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="93" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" ht="50.75" spans="1:5">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="E23" s="73"/>
+      <c r="E23" s="95"/>
     </row>
     <row r="24" ht="15.25" spans="1:5">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="69">
+      <c r="B24" s="91">
         <v>1094733787</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="91" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="25" ht="25.75" spans="1:5">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="71">
+      <c r="B25" s="93">
         <v>1555995873</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="71" t="s">
+      <c r="E25" s="93" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" ht="25.75" spans="1:5">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="B26" s="71">
+      <c r="B26" s="93">
         <v>1143466824</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="E26" s="71" t="s">
+      <c r="E26" s="93" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="27" ht="50.75" spans="1:5">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D27" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E27" s="71" t="s">
+      <c r="E27" s="93" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" ht="63.25" spans="1:5">
-      <c r="A28" s="68" t="s">
+      <c r="A28" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="69">
+      <c r="B28" s="91">
         <v>1558802079</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="91" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="29" ht="50.75" spans="1:5">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="69">
+      <c r="B29" s="91">
         <v>1027276293</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="91" t="s">
         <v>97</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="91" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="30" ht="50.75" spans="1:5">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="71" t="s">
+      <c r="C30" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="E30" s="71" t="s">
+      <c r="E30" s="93" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31" ht="25.75" spans="1:5">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="71">
+      <c r="B31" s="93">
         <v>1146676126</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="71" t="s">
+      <c r="E31" s="93" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32" ht="25.75" spans="1:5">
-      <c r="A32" s="68" t="s">
+      <c r="A32" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="69">
+      <c r="B32" s="91">
         <v>1099683271</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="91" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="74" t="s">
+      <c r="D32" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="74" t="s">
+      <c r="E32" s="96" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" ht="25.75" spans="1:5">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="71">
+      <c r="B33" s="93">
         <v>1122819199</v>
       </c>
-      <c r="C33" s="71" t="s">
+      <c r="C33" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="71" t="s">
+      <c r="E33" s="93" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" ht="25.75" spans="1:5">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="92" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="71">
+      <c r="B34" s="93">
         <v>1551611806</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D34" s="71" t="s">
+      <c r="D34" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="E34" s="71" t="s">
+      <c r="E34" s="93" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="35" ht="25.75" spans="1:5">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="B35" s="71">
+      <c r="B35" s="93">
         <v>1559364454</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="93" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D35" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="71" t="s">
+      <c r="E35" s="93" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="36" ht="38.25" spans="1:5">
-      <c r="A36" s="70" t="s">
+      <c r="A36" s="92" t="s">
         <v>122</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="71" t="s">
+      <c r="C36" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="D36" s="72" t="s">
+      <c r="D36" s="94" t="s">
         <v>112</v>
       </c>
-      <c r="E36" s="73"/>
+      <c r="E36" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3686,161 +3929,161 @@
   </cols>
   <sheetData>
     <row r="1" ht="17" spans="1:3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
     </row>
     <row r="3" ht="17" spans="1:3">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
     </row>
     <row r="5" ht="15.25" spans="1:3">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
     </row>
     <row r="6" ht="15.25" spans="1:5">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
     </row>
     <row r="7" ht="15.25" spans="1:5">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="79" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="79">
         <v>1147318485</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
     </row>
     <row r="8" ht="15.25" spans="1:5">
-      <c r="A8" s="56"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="80">
         <v>1064942383</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
     </row>
     <row r="9" ht="15.25" spans="1:5">
-      <c r="A9" s="56"/>
-      <c r="B9" s="57" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="79">
         <v>1008361694</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
     </row>
     <row r="11" ht="15.25" spans="1:5">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
     </row>
     <row r="12" ht="15.25" spans="1:5">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D12" s="83" t="s">
         <v>70</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="82" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" ht="15.25" spans="1:5">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="84" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="63">
+      <c r="B13" s="85">
         <v>1147318485</v>
       </c>
-      <c r="C13" s="63" t="s">
+      <c r="C13" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="85" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="14" ht="15.25" spans="1:5">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="65">
+      <c r="B14" s="87">
         <v>1064942383</v>
       </c>
-      <c r="C14" s="63" t="s">
+      <c r="C14" s="85" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="85" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" ht="15.25" spans="1:5">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="84" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="85">
         <v>1008361694</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="85" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3855,7 +4098,7 @@
   <sheetPr/>
   <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
+    <sheetView topLeftCell="A118" workbookViewId="0">
       <selection activeCell="C127" sqref="C127:F148"/>
     </sheetView>
   </sheetViews>
@@ -3875,13 +4118,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3892,19 +4135,19 @@
       <c r="B2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
@@ -3913,16 +4156,16 @@
       <c r="B3" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C3" s="26">
+      <c r="C3" s="49">
         <v>1001753537</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="32" t="s">
         <v>96</v>
       </c>
       <c r="G3" t="s">
@@ -3936,16 +4179,16 @@
       <c r="B4" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C4" s="26">
+      <c r="C4" s="49">
         <v>1065566884</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="32" t="s">
         <v>103</v>
       </c>
       <c r="G4" t="s">
@@ -3959,31 +4202,31 @@
       <c r="B5" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="49">
         <v>1146676126</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="32" t="s">
         <v>119</v>
       </c>
       <c r="G5" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="35">
+      <c r="I5" s="58">
         <v>1110641066</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="59" t="s">
         <v>144</v>
       </c>
     </row>
@@ -3994,16 +4237,16 @@
       <c r="B6" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="49">
         <v>1099683271</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G6" t="s">
@@ -4017,16 +4260,16 @@
       <c r="B7" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="49">
         <v>1090712285</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="50" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="32" t="s">
         <v>91</v>
       </c>
       <c r="G7" t="s">
@@ -4040,16 +4283,16 @@
       <c r="B8" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="32">
         <v>1110641066</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="32" t="s">
         <v>144</v>
       </c>
       <c r="G8" t="s">
@@ -4063,16 +4306,16 @@
       <c r="B9" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="32" t="s">
         <v>101</v>
       </c>
       <c r="G9" t="s">
@@ -4086,16 +4329,16 @@
       <c r="B10" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="32" t="s">
         <v>89</v>
       </c>
       <c r="G10" t="s">
@@ -4109,16 +4352,16 @@
       <c r="B11" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="32" t="s">
         <v>117</v>
       </c>
       <c r="G11" t="s">
@@ -4132,16 +4375,16 @@
       <c r="B12" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="29" t="s">
+      <c r="D12" s="52" t="s">
         <v>153</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="32" t="s">
         <v>92</v>
       </c>
       <c r="G12" t="s">
@@ -4155,16 +4398,16 @@
       <c r="B13" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="49">
         <v>1099032016</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="32" t="s">
         <v>155</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="32" t="s">
         <v>104</v>
       </c>
       <c r="G13" t="s">
@@ -4178,16 +4421,16 @@
       <c r="B14" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="49">
         <v>1143466824</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="D14" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="32" t="s">
         <v>154</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="32" t="s">
         <v>92</v>
       </c>
       <c r="G14" t="s">
@@ -4201,16 +4444,16 @@
       <c r="B15" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="49">
         <v>1146120814</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="32" t="s">
         <v>86</v>
       </c>
       <c r="G15" t="s">
@@ -4224,16 +4467,16 @@
       <c r="B16" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="49">
         <v>1032869389</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="32" t="s">
         <v>94</v>
       </c>
       <c r="G16" t="s">
@@ -4247,16 +4490,16 @@
       <c r="B17" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="49">
         <v>1283104485</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="32" t="s">
         <v>102</v>
       </c>
       <c r="G17" t="s">
@@ -4270,16 +4513,16 @@
       <c r="B18" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="49">
         <v>1281846273</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="32" t="s">
         <v>108</v>
       </c>
       <c r="G18" t="s">
@@ -4293,16 +4536,16 @@
       <c r="B19" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="49">
         <v>1551611806</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="32" t="s">
         <v>108</v>
       </c>
       <c r="G19" t="s">
@@ -4316,16 +4559,16 @@
       <c r="B20" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="49">
         <v>1559364454</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="32" t="s">
         <v>108</v>
       </c>
       <c r="G20" t="s">
@@ -4339,16 +4582,16 @@
       <c r="B21" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="49">
         <v>1116450350</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="32" t="s">
         <v>106</v>
       </c>
       <c r="G21" t="s">
@@ -4362,16 +4605,16 @@
       <c r="B22" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="49">
         <v>1500537534</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="32" t="s">
         <v>83</v>
       </c>
       <c r="G22" t="s">
@@ -4385,16 +4628,16 @@
       <c r="B23" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="49">
         <v>1094733787</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="32" t="s">
         <v>77</v>
       </c>
       <c r="G23" t="s">
@@ -4408,16 +4651,16 @@
       <c r="B24" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="50" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="32" t="s">
         <v>88</v>
       </c>
       <c r="G24" t="s">
@@ -4431,16 +4674,16 @@
       <c r="B25" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="32" t="s">
         <v>89</v>
       </c>
       <c r="G25" t="s">
@@ -4454,16 +4697,16 @@
       <c r="B26" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C26" s="26">
+      <c r="C26" s="49">
         <v>1122819199</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="32" t="s">
         <v>89</v>
       </c>
       <c r="G26" t="s">
@@ -4477,16 +4720,16 @@
       <c r="B27" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C27" s="26">
+      <c r="C27" s="49">
         <v>1013260200</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="32" t="s">
         <v>89</v>
       </c>
       <c r="G27" t="s">
@@ -4500,16 +4743,16 @@
       <c r="B28" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C28" s="26">
+      <c r="C28" s="49">
         <v>1555995873</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="32" t="s">
         <v>89</v>
       </c>
       <c r="G28" t="s">
@@ -4523,16 +4766,16 @@
       <c r="B29" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="32" t="s">
         <v>93</v>
       </c>
       <c r="G29" t="s">
@@ -4546,16 +4789,16 @@
       <c r="B30" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="49">
         <v>1558341144</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="32" t="s">
         <v>105</v>
       </c>
       <c r="G30" t="s">
@@ -4569,16 +4812,16 @@
       <c r="B31" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="32" t="s">
         <v>178</v>
       </c>
       <c r="G31" t="s">
@@ -4592,14 +4835,14 @@
       <c r="B32" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="49">
         <v>1091749090</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
       <c r="G32" t="s">
         <v>37</v>
       </c>
@@ -4611,14 +4854,14 @@
       <c r="B33" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
       <c r="G33" t="s">
         <v>39</v>
       </c>
@@ -4630,16 +4873,16 @@
       <c r="B34" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="49">
         <v>1558802079</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="32" t="s">
         <v>178</v>
       </c>
       <c r="G34" t="s">
@@ -4653,16 +4896,16 @@
       <c r="B35" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="49">
         <v>1027276293</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="32" t="s">
         <v>178</v>
       </c>
       <c r="G35" t="s">
@@ -4676,196 +4919,196 @@
       <c r="B36" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
       <c r="G36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" spans="3:6">
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
     </row>
     <row r="38" spans="3:6">
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
     </row>
     <row r="39" ht="15.25"/>
     <row r="40" ht="15.25" spans="3:6">
-      <c r="C40" s="30" t="s">
+      <c r="C40" s="53" t="s">
         <v>184</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="D40" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="F40" s="31" t="s">
+      <c r="F40" s="54" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="41" ht="15.25" spans="3:6">
-      <c r="C41" s="32">
+      <c r="C41" s="55">
         <v>10332567</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="34" t="s">
+      <c r="E41" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="F41" s="34" t="s">
+      <c r="F41" s="57" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="42" ht="15.25" spans="3:6">
-      <c r="C42" s="32">
+      <c r="C42" s="55">
         <v>10332555</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="34" t="s">
+      <c r="E42" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="F42" s="34" t="s">
+      <c r="F42" s="57" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="43" ht="15.25" spans="3:6">
-      <c r="C43" s="32">
+      <c r="C43" s="55">
         <v>10332548</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="F43" s="34" t="s">
+      <c r="F43" s="57" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="44" ht="15.25" spans="3:6">
-      <c r="C44" s="32">
+      <c r="C44" s="55">
         <v>10332547</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="34" t="s">
+      <c r="E44" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="F44" s="34" t="s">
+      <c r="F44" s="57" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="45" ht="15.25" spans="3:6">
-      <c r="C45" s="32">
+      <c r="C45" s="55">
         <v>10332550</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="34" t="s">
+      <c r="E45" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="34" t="s">
+      <c r="F45" s="57" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="46" ht="15.25" spans="3:6">
-      <c r="C46" s="32">
+      <c r="C46" s="55">
         <v>10332515</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="34" t="s">
+      <c r="E46" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="F46" s="34" t="s">
+      <c r="F46" s="57" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="47" ht="15.25" spans="3:6">
-      <c r="C47" s="32">
+      <c r="C47" s="55">
         <v>10332482</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="F47" s="34" t="s">
+      <c r="F47" s="57" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="48" ht="15.25" spans="3:6">
-      <c r="C48" s="32">
+      <c r="C48" s="55">
         <v>10332481</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="34" t="s">
+      <c r="E48" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="F48" s="34" t="s">
+      <c r="F48" s="57" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="49" ht="15.25" spans="3:6">
-      <c r="C49" s="32">
+      <c r="C49" s="55">
         <v>10332478</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E49" s="34" t="s">
+      <c r="E49" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="F49" s="34" t="s">
+      <c r="F49" s="57" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="50" ht="15.25" spans="3:6">
-      <c r="C50" s="32">
+      <c r="C50" s="55">
         <v>10332513</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="34" t="s">
+      <c r="E50" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="F50" s="34" t="s">
+      <c r="F50" s="57" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="51" ht="15.25" spans="3:6">
-      <c r="C51" s="32">
+      <c r="C51" s="55">
         <v>10332571</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E51" s="34" t="s">
+      <c r="E51" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="34" t="s">
+      <c r="F51" s="57" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4876,16 +5119,16 @@
       <c r="B53" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F53" s="49">
         <v>1065566884</v>
       </c>
     </row>
@@ -4896,16 +5139,16 @@
       <c r="B54" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="F54" s="26">
+      <c r="F54" s="49">
         <v>1146676126</v>
       </c>
     </row>
@@ -4916,16 +5159,16 @@
       <c r="B55" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="F55" s="26">
+      <c r="F55" s="49">
         <v>1099683271</v>
       </c>
     </row>
@@ -4936,16 +5179,16 @@
       <c r="B56" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="50" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="26" t="s">
+      <c r="F56" s="49" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4956,16 +5199,16 @@
       <c r="B57" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="50" t="s">
         <v>159</v>
       </c>
-      <c r="F57" s="26">
+      <c r="F57" s="49">
         <v>1283104485</v>
       </c>
     </row>
@@ -4976,16 +5219,16 @@
       <c r="B58" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="27" t="s">
+      <c r="E58" s="50" t="s">
         <v>161</v>
       </c>
-      <c r="F58" s="26">
+      <c r="F58" s="49">
         <v>1551611806</v>
       </c>
     </row>
@@ -4996,16 +5239,16 @@
       <c r="B59" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="26">
+      <c r="F59" s="49">
         <v>1094733787</v>
       </c>
     </row>
@@ -5016,16 +5259,16 @@
       <c r="B60" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="50" t="s">
         <v>170</v>
       </c>
-      <c r="F60" s="26">
+      <c r="F60" s="49">
         <v>1122819199</v>
       </c>
     </row>
@@ -5036,16 +5279,16 @@
       <c r="B61" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="F61" s="26">
+      <c r="F61" s="49">
         <v>1013260200</v>
       </c>
     </row>
@@ -5056,16 +5299,16 @@
       <c r="B62" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="E62" s="27" t="s">
+      <c r="E62" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="F62" s="26" t="s">
+      <c r="F62" s="49" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5076,16 +5319,16 @@
       <c r="B63" s="3">
         <v>0.708333333333333</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="E63" s="27" t="s">
+      <c r="E63" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="F63" s="26">
+      <c r="F63" s="49">
         <v>1558341144</v>
       </c>
     </row>
@@ -5311,142 +5554,142 @@
     </row>
     <row r="77" ht="15.25"/>
     <row r="78" ht="15.25" spans="3:6">
-      <c r="C78" s="37" t="s">
+      <c r="C78" s="60" t="s">
         <v>184</v>
       </c>
-      <c r="D78" s="38" t="s">
+      <c r="D78" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="E78" s="38" t="s">
+      <c r="E78" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="F78" s="38" t="s">
+      <c r="F78" s="61" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="79" ht="15.25" spans="3:6">
-      <c r="C79" s="39">
+      <c r="C79" s="41">
         <v>10332517</v>
       </c>
-      <c r="D79" s="40" t="s">
+      <c r="D79" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="E79" s="41" t="s">
+      <c r="E79" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="41" t="s">
+      <c r="F79" s="63" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="80" ht="15.25" spans="3:6">
-      <c r="C80" s="39">
+      <c r="C80" s="41">
         <v>10332557</v>
       </c>
-      <c r="D80" s="40" t="s">
+      <c r="D80" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="E80" s="41" t="s">
+      <c r="E80" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F80" s="41" t="s">
+      <c r="F80" s="63" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="81" ht="15.25" spans="3:6">
-      <c r="C81" s="39">
+      <c r="C81" s="41">
         <v>10332639</v>
       </c>
-      <c r="D81" s="40" t="s">
+      <c r="D81" s="62" t="s">
         <v>204</v>
       </c>
-      <c r="E81" s="41" t="s">
+      <c r="E81" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F81" s="41" t="s">
+      <c r="F81" s="63" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82" ht="15.25" spans="3:6">
-      <c r="C82" s="39">
+      <c r="C82" s="41">
         <v>10331792</v>
       </c>
-      <c r="D82" s="40" t="s">
+      <c r="D82" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="E82" s="41" t="s">
+      <c r="E82" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="F82" s="41" t="s">
+      <c r="F82" s="63" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="83" ht="15.25" spans="3:6">
-      <c r="C83" s="39">
+      <c r="C83" s="41">
         <v>10332552</v>
       </c>
-      <c r="D83" s="40" t="s">
+      <c r="D83" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="41" t="s">
+      <c r="E83" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="F83" s="41" t="s">
+      <c r="F83" s="63" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="84" ht="25.75" spans="3:6">
-      <c r="C84" s="39">
+      <c r="C84" s="41">
         <v>10332631</v>
       </c>
-      <c r="D84" s="40" t="s">
+      <c r="D84" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="E84" s="41" t="s">
+      <c r="E84" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="41" t="s">
+      <c r="F84" s="63" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="85" ht="15.25" spans="3:6">
-      <c r="C85" s="39">
+      <c r="C85" s="41">
         <v>10332480</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="62" t="s">
         <v>212</v>
       </c>
-      <c r="E85" s="41" t="s">
+      <c r="E85" s="63" t="s">
         <v>213</v>
       </c>
-      <c r="F85" s="41" t="s">
+      <c r="F85" s="63" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="86" ht="29.75" spans="3:6">
-      <c r="C86" s="39">
+      <c r="C86" s="41">
         <v>10332544</v>
       </c>
-      <c r="D86" s="40" t="s">
+      <c r="D86" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="41" t="s">
+      <c r="E86" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="F86" s="41" t="s">
+      <c r="F86" s="63" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" ht="15.25" spans="3:6">
-      <c r="C87" s="39">
+      <c r="C87" s="41">
         <v>10332681</v>
       </c>
-      <c r="D87" s="40" t="s">
+      <c r="D87" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="E87" s="41" t="s">
+      <c r="E87" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="F87" s="41" t="s">
+      <c r="F87" s="63" t="s">
         <v>218</v>
       </c>
     </row>
@@ -5629,443 +5872,443 @@
     </row>
     <row r="101" ht="15.25"/>
     <row r="102" ht="15.25" spans="3:8">
-      <c r="C102" s="42" t="s">
+      <c r="C102" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="D102" s="43" t="s">
+      <c r="D102" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E102" s="44" t="s">
+      <c r="E102" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="F102" s="44" t="s">
+      <c r="F102" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="G102" s="43" t="s">
+      <c r="G102" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="H102" s="43" t="s">
+      <c r="H102" s="65" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="103" ht="15.25" spans="3:8">
-      <c r="C103" s="45">
+      <c r="C103" s="67">
         <v>10332517</v>
       </c>
-      <c r="D103" s="46" t="s">
+      <c r="D103" s="68" t="s">
         <v>201</v>
       </c>
-      <c r="E103" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F103" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G103" s="48" t="s">
+      <c r="E103" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F103" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G103" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="H103" s="48" t="s">
+      <c r="H103" s="70" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="104" ht="15.25" spans="3:8">
-      <c r="C104" s="45">
+      <c r="C104" s="67">
         <v>10332557</v>
       </c>
-      <c r="D104" s="46" t="s">
+      <c r="D104" s="68" t="s">
         <v>202</v>
       </c>
-      <c r="E104" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F104" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G104" s="48" t="s">
+      <c r="E104" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F104" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G104" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H104" s="48" t="s">
+      <c r="H104" s="70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="105" ht="15.25" spans="3:8">
-      <c r="C105" s="45">
+      <c r="C105" s="67">
         <v>10332639</v>
       </c>
-      <c r="D105" s="46" t="s">
+      <c r="D105" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="E105" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F105" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G105" s="48" t="s">
+      <c r="E105" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F105" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G105" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H105" s="48" t="s">
+      <c r="H105" s="70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="106" ht="15.25" spans="3:8">
-      <c r="C106" s="45">
+      <c r="C106" s="67">
         <v>10331792</v>
       </c>
-      <c r="D106" s="46" t="s">
+      <c r="D106" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="E106" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F106" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G106" s="48" t="s">
+      <c r="E106" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F106" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G106" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="H106" s="48" t="s">
+      <c r="H106" s="70" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="107" ht="15.25" spans="3:8">
-      <c r="C107" s="45">
+      <c r="C107" s="67">
         <v>10332552</v>
       </c>
-      <c r="D107" s="46" t="s">
+      <c r="D107" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F107" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G107" s="48" t="s">
+      <c r="E107" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F107" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G107" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="H107" s="48" t="s">
+      <c r="H107" s="70" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="108" ht="15.25" spans="3:8">
-      <c r="C108" s="45">
+      <c r="C108" s="67">
         <v>10332631</v>
       </c>
-      <c r="D108" s="46" t="s">
+      <c r="D108" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="E108" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F108" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G108" s="48" t="s">
+      <c r="E108" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F108" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G108" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="H108" s="48" t="s">
+      <c r="H108" s="70" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="109" ht="15.25" spans="3:8">
-      <c r="C109" s="45">
+      <c r="C109" s="67">
         <v>10332480</v>
       </c>
-      <c r="D109" s="46" t="s">
+      <c r="D109" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="E109" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F109" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G109" s="48" t="s">
+      <c r="E109" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F109" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G109" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="H109" s="48" t="s">
+      <c r="H109" s="70" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="110" ht="15.25" spans="3:8">
-      <c r="C110" s="45">
+      <c r="C110" s="67">
         <v>10332544</v>
       </c>
-      <c r="D110" s="46" t="s">
+      <c r="D110" s="68" t="s">
         <v>215</v>
       </c>
-      <c r="E110" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F110" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G110" s="48" t="s">
+      <c r="E110" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F110" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G110" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="H110" s="48" t="s">
+      <c r="H110" s="70" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="111" ht="15.25" spans="3:8">
-      <c r="C111" s="45">
+      <c r="C111" s="67">
         <v>10332681</v>
       </c>
-      <c r="D111" s="46" t="s">
+      <c r="D111" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="E111" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F111" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G111" s="48" t="s">
+      <c r="E111" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F111" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G111" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="H111" s="48" t="s">
+      <c r="H111" s="70" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="112" ht="15.25" spans="3:8">
-      <c r="C112" s="32">
+      <c r="C112" s="55">
         <v>10332567</v>
       </c>
-      <c r="D112" s="33" t="s">
+      <c r="D112" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="E112" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F112" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G112" s="34" t="s">
+      <c r="E112" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F112" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G112" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="H112" s="34" t="s">
+      <c r="H112" s="57" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="113" ht="15.25" spans="3:8">
-      <c r="C113" s="32">
+      <c r="C113" s="55">
         <v>10332555</v>
       </c>
-      <c r="D113" s="33" t="s">
+      <c r="D113" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="E113" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F113" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G113" s="34" t="s">
+      <c r="E113" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F113" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G113" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="H113" s="34" t="s">
+      <c r="H113" s="57" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="114" ht="15.25" spans="3:8">
-      <c r="C114" s="32">
+      <c r="C114" s="55">
         <v>10332548</v>
       </c>
-      <c r="D114" s="33" t="s">
+      <c r="D114" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E114" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F114" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G114" s="34" t="s">
+      <c r="E114" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F114" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G114" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="H114" s="34" t="s">
+      <c r="H114" s="57" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="115" ht="15.25" spans="3:8">
-      <c r="C115" s="32">
+      <c r="C115" s="55">
         <v>10332547</v>
       </c>
-      <c r="D115" s="33" t="s">
+      <c r="D115" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E115" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F115" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G115" s="34" t="s">
+      <c r="E115" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F115" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G115" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="H115" s="34" t="s">
+      <c r="H115" s="57" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="116" ht="15.25" spans="3:8">
-      <c r="C116" s="32">
+      <c r="C116" s="55">
         <v>10332550</v>
       </c>
-      <c r="D116" s="33" t="s">
+      <c r="D116" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E116" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F116" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G116" s="34" t="s">
+      <c r="E116" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F116" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G116" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="H116" s="34" t="s">
+      <c r="H116" s="57" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="117" ht="15.25" spans="3:8">
-      <c r="C117" s="32">
+      <c r="C117" s="55">
         <v>10332515</v>
       </c>
-      <c r="D117" s="33" t="s">
+      <c r="D117" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="E117" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F117" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G117" s="34" t="s">
+      <c r="E117" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F117" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G117" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="H117" s="34" t="s">
+      <c r="H117" s="57" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="118" ht="15.25" spans="3:8">
-      <c r="C118" s="32">
+      <c r="C118" s="55">
         <v>10332482</v>
       </c>
-      <c r="D118" s="33" t="s">
+      <c r="D118" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E118" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F118" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G118" s="34" t="s">
+      <c r="E118" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F118" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G118" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="H118" s="34" t="s">
+      <c r="H118" s="57" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="119" ht="15.25" spans="3:8">
-      <c r="C119" s="32">
+      <c r="C119" s="55">
         <v>10332481</v>
       </c>
-      <c r="D119" s="33" t="s">
+      <c r="D119" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E119" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F119" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G119" s="34" t="s">
+      <c r="E119" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F119" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G119" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="H119" s="34" t="s">
+      <c r="H119" s="57" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="120" ht="15.25" spans="3:8">
-      <c r="C120" s="32">
+      <c r="C120" s="55">
         <v>10332478</v>
       </c>
-      <c r="D120" s="33" t="s">
+      <c r="D120" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E120" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F120" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G120" s="34" t="s">
+      <c r="E120" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F120" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G120" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="H120" s="34" t="s">
+      <c r="H120" s="57" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="121" ht="15.25" spans="3:8">
-      <c r="C121" s="32">
+      <c r="C121" s="55">
         <v>10332513</v>
       </c>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="E121" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F121" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G121" s="34" t="s">
+      <c r="E121" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F121" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G121" s="57" t="s">
         <v>195</v>
       </c>
-      <c r="H121" s="34" t="s">
+      <c r="H121" s="57" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="122" ht="15.25" spans="3:8">
-      <c r="C122" s="32">
+      <c r="C122" s="55">
         <v>10332571</v>
       </c>
-      <c r="D122" s="33" t="s">
+      <c r="D122" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="E122" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F122" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G122" s="34" t="s">
+      <c r="E122" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F122" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G122" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="H122" s="34" t="s">
+      <c r="H122" s="57" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="125" ht="15.25"/>
     <row r="126" ht="15.25" spans="3:8">
-      <c r="C126" s="42" t="s">
+      <c r="C126" s="64" t="s">
         <v>184</v>
       </c>
-      <c r="D126" s="43" t="s">
+      <c r="D126" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E126" s="44" t="s">
+      <c r="E126" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="F126" s="44" t="s">
+      <c r="F126" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="G126" s="43" t="s">
+      <c r="G126" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="H126" s="43" t="s">
+      <c r="H126" s="65" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6073,442 +6316,442 @@
       <c r="A127" t="s">
         <v>222</v>
       </c>
-      <c r="C127" s="45">
+      <c r="C127" s="67">
         <v>10332557</v>
       </c>
-      <c r="D127" s="49" t="s">
+      <c r="D127" s="71" t="s">
         <v>202</v>
       </c>
-      <c r="E127" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F127" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G127" s="48" t="s">
+      <c r="E127" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F127" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G127" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H127" s="48" t="s">
+      <c r="H127" s="70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="128" ht="15.25" spans="3:8">
-      <c r="C128" s="45">
+      <c r="C128" s="67">
         <v>10332554</v>
       </c>
-      <c r="D128" s="46" t="s">
+      <c r="D128" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="E128" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F128" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G128" s="48" t="s">
+      <c r="E128" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F128" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G128" s="70" t="s">
         <v>223</v>
       </c>
-      <c r="H128" s="48" t="s">
+      <c r="H128" s="70" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="129" ht="15.25" spans="3:8">
-      <c r="C129" s="45">
+      <c r="C129" s="67">
         <v>10332553</v>
       </c>
-      <c r="D129" s="46" t="s">
+      <c r="D129" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="E129" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F129" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G129" s="48" t="s">
+      <c r="E129" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F129" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G129" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="H129" s="48" t="s">
+      <c r="H129" s="70" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="130" ht="15.25" spans="3:8">
-      <c r="C130" s="45">
+      <c r="C130" s="67">
         <v>10332552</v>
       </c>
-      <c r="D130" s="49" t="s">
+      <c r="D130" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="E130" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F130" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G130" s="48" t="s">
+      <c r="E130" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F130" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G130" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="H130" s="48" t="s">
+      <c r="H130" s="70" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="131" ht="15.25" spans="3:8">
-      <c r="C131" s="45">
+      <c r="C131" s="67">
         <v>10332639</v>
       </c>
-      <c r="D131" s="49" t="s">
+      <c r="D131" s="71" t="s">
         <v>204</v>
       </c>
-      <c r="E131" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F131" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G131" s="48" t="s">
+      <c r="E131" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F131" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G131" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="H131" s="48" t="s">
+      <c r="H131" s="70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="132" ht="15.25" spans="3:8">
-      <c r="C132" s="45">
+      <c r="C132" s="67">
         <v>10331792</v>
       </c>
-      <c r="D132" s="49" t="s">
+      <c r="D132" s="71" t="s">
         <v>205</v>
       </c>
-      <c r="E132" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F132" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G132" s="48" t="s">
+      <c r="E132" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F132" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G132" s="70" t="s">
         <v>206</v>
       </c>
-      <c r="H132" s="48" t="s">
+      <c r="H132" s="70" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="133" ht="15.25" spans="3:8">
-      <c r="C133" s="45">
+      <c r="C133" s="67">
         <v>10332544</v>
       </c>
-      <c r="D133" s="49" t="s">
+      <c r="D133" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="E133" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F133" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G133" s="48" t="s">
+      <c r="E133" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F133" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G133" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="H133" s="48" t="s">
+      <c r="H133" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="134" ht="15.25" spans="3:8">
-      <c r="C134" s="45">
+      <c r="C134" s="67">
         <v>10332517</v>
       </c>
-      <c r="D134" s="49" t="s">
+      <c r="D134" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="E134" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F134" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G134" s="48" t="s">
+      <c r="E134" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F134" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G134" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="H134" s="48" t="s">
+      <c r="H134" s="70" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="135" ht="15.25" spans="3:8">
-      <c r="C135" s="45">
+      <c r="C135" s="67">
         <v>10332480</v>
       </c>
-      <c r="D135" s="49" t="s">
+      <c r="D135" s="71" t="s">
         <v>212</v>
       </c>
-      <c r="E135" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F135" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G135" s="48" t="s">
+      <c r="E135" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F135" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G135" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="H135" s="48" t="s">
+      <c r="H135" s="70" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="136" ht="15.25" spans="3:8">
-      <c r="C136" s="45">
+      <c r="C136" s="67">
         <v>10332681</v>
       </c>
-      <c r="D136" s="49" t="s">
+      <c r="D136" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="E136" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F136" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G136" s="48" t="s">
+      <c r="E136" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F136" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G136" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="H136" s="48" t="s">
+      <c r="H136" s="70" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="137" ht="15.25" spans="3:8">
-      <c r="C137" s="45">
+      <c r="C137" s="67">
         <v>10332631</v>
       </c>
-      <c r="D137" s="49" t="s">
+      <c r="D137" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="E137" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F137" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G137" s="48" t="s">
+      <c r="E137" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F137" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G137" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="H137" s="48" t="s">
+      <c r="H137" s="70" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="138" ht="15.25" spans="3:8">
-      <c r="C138" s="45">
+      <c r="C138" s="67">
         <v>10332567</v>
       </c>
-      <c r="D138" s="49" t="s">
+      <c r="D138" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="E138" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F138" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G138" s="48" t="s">
+      <c r="E138" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F138" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G138" s="70" t="s">
         <v>146</v>
       </c>
-      <c r="H138" s="48" t="s">
+      <c r="H138" s="70" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="139" ht="15.25" spans="3:8">
-      <c r="C139" s="45">
+      <c r="C139" s="67">
         <v>10332555</v>
       </c>
-      <c r="D139" s="49" t="s">
+      <c r="D139" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="E139" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F139" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G139" s="48" t="s">
+      <c r="E139" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F139" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G139" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="H139" s="48" t="s">
+      <c r="H139" s="70" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="140" ht="15.25" spans="3:8">
-      <c r="C140" s="45">
+      <c r="C140" s="67">
         <v>10332548</v>
       </c>
-      <c r="D140" s="49" t="s">
+      <c r="D140" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="E140" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F140" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G140" s="48" t="s">
+      <c r="E140" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F140" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G140" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="H140" s="48" t="s">
+      <c r="H140" s="70" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="141" ht="15.25" spans="3:8">
-      <c r="C141" s="45">
+      <c r="C141" s="67">
         <v>10332547</v>
       </c>
-      <c r="D141" s="49" t="s">
+      <c r="D141" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="E141" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F141" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G141" s="48" t="s">
+      <c r="E141" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F141" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G141" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="H141" s="48" t="s">
+      <c r="H141" s="70" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="142" ht="15.25" spans="3:8">
-      <c r="C142" s="45">
+      <c r="C142" s="67">
         <v>10332550</v>
       </c>
-      <c r="D142" s="49" t="s">
+      <c r="D142" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="E142" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F142" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G142" s="48" t="s">
+      <c r="E142" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F142" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G142" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="H142" s="48" t="s">
+      <c r="H142" s="70" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="143" ht="15.25" spans="3:8">
-      <c r="C143" s="45">
+      <c r="C143" s="67">
         <v>10332515</v>
       </c>
-      <c r="D143" s="49" t="s">
+      <c r="D143" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F143" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G143" s="48" t="s">
+      <c r="E143" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F143" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G143" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="H143" s="48" t="s">
+      <c r="H143" s="70" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="144" ht="15.25" spans="3:8">
-      <c r="C144" s="45">
+      <c r="C144" s="67">
         <v>10332482</v>
       </c>
-      <c r="D144" s="49" t="s">
+      <c r="D144" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="E144" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F144" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G144" s="48" t="s">
+      <c r="E144" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F144" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G144" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="H144" s="48" t="s">
+      <c r="H144" s="70" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="145" ht="15.25" spans="3:8">
-      <c r="C145" s="45">
+      <c r="C145" s="67">
         <v>10332481</v>
       </c>
-      <c r="D145" s="49" t="s">
+      <c r="D145" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="E145" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F145" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G145" s="48" t="s">
+      <c r="E145" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F145" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G145" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="H145" s="48" t="s">
+      <c r="H145" s="70" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="146" ht="15.25" spans="3:8">
-      <c r="C146" s="45">
+      <c r="C146" s="67">
         <v>10332478</v>
       </c>
-      <c r="D146" s="49" t="s">
+      <c r="D146" s="71" t="s">
         <v>197</v>
       </c>
-      <c r="E146" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F146" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G146" s="48" t="s">
+      <c r="E146" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F146" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G146" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="H146" s="48" t="s">
+      <c r="H146" s="70" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="147" ht="15.25" spans="3:8">
-      <c r="C147" s="45">
+      <c r="C147" s="67">
         <v>10332513</v>
       </c>
-      <c r="D147" s="49" t="s">
+      <c r="D147" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="E147" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F147" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G147" s="48" t="s">
+      <c r="E147" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F147" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G147" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="H147" s="48" t="s">
+      <c r="H147" s="70" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="148" ht="15.25" spans="3:8">
-      <c r="C148" s="45">
+      <c r="C148" s="67">
         <v>10332571</v>
       </c>
-      <c r="D148" s="49" t="s">
+      <c r="D148" s="71" t="s">
         <v>120</v>
       </c>
-      <c r="E148" s="47">
-        <v>0.375</v>
-      </c>
-      <c r="F148" s="47">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="G148" s="48" t="s">
+      <c r="E148" s="69">
+        <v>0.375</v>
+      </c>
+      <c r="F148" s="69">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="G148" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="H148" s="48" t="s">
+      <c r="H148" s="70" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6532,8 +6775,8 @@
   <sheetPr/>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="$A14:$XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -6550,14 +6793,14 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="3:8">
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6568,20 +6811,20 @@
       <c r="B2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
@@ -6590,10 +6833,10 @@
       <c r="B3" s="3">
         <v>0.75</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="29">
         <v>1003838875</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="30" t="s">
         <v>232</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -6613,10 +6856,10 @@
       <c r="B4" s="3">
         <v>0.75</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="30" t="s">
         <v>233</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -6636,10 +6879,10 @@
       <c r="B5" s="3">
         <v>0.75</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="29">
         <v>1080801266</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="30" t="s">
         <v>234</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -6659,10 +6902,10 @@
       <c r="B6" s="3">
         <v>0.75</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="29">
         <v>1115300028</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="30" t="s">
         <v>235</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -6682,7 +6925,7 @@
       <c r="B7" s="3">
         <v>0.75</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="29">
         <v>1021048699</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -6694,16 +6937,16 @@
       <c r="F7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="46">
         <v>1017979666</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="24" t="s">
+      <c r="K7" s="47" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6714,7 +6957,7 @@
       <c r="B8" s="3">
         <v>0.75</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="29">
         <v>1009236553</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -6734,7 +6977,7 @@
       <c r="B9" s="3">
         <v>0.75</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="29">
         <v>1156602331</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -6754,7 +6997,7 @@
       <c r="B10" s="3">
         <v>0.75</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -6774,7 +7017,7 @@
       <c r="B11" s="3">
         <v>0.75</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="29">
         <v>1017979666</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -6788,210 +7031,213 @@
       </c>
     </row>
     <row r="12" ht="15.25" spans="3:6">
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
     </row>
     <row r="13" spans="2:8">
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="34" t="s">
         <v>244</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="34" t="s">
         <v>245</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="34" t="s">
         <v>246</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="34" t="s">
         <v>247</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="34" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:8">
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+    <row r="14" ht="15.25" spans="1:8">
+      <c r="A14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" ht="15.25" spans="2:8">
-      <c r="B15" s="14">
+      <c r="B15" s="37">
         <v>10332461</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="E15" s="16">
+      <c r="D15" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="39">
         <v>0.75</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="38">
         <v>201080229991</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>249</v>
+      <c r="H15" s="40" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="16" ht="15.25" spans="2:8">
-      <c r="B16" s="18">
+      <c r="B16" s="41">
         <v>10332446</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="D16" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="E16" s="16">
+      <c r="D16" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="39">
         <v>0.75</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="38">
         <v>201005599833</v>
       </c>
-      <c r="G16" s="17" t="s">
+      <c r="G16" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" ht="15.25" spans="2:8">
+      <c r="B17" s="37">
+        <v>10332447</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="E17" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="F17" s="43">
+        <v>201003838875</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" ht="15.25" spans="2:8">
+      <c r="B18" s="41">
+        <v>10332448</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="39">
+        <v>0.75</v>
+      </c>
+      <c r="F18" s="38">
+        <v>201115300028</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" ht="15.25" spans="2:8">
-      <c r="B17" s="14">
-        <v>10332447</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="E17" s="16">
+    </row>
+    <row r="19" ht="15.25" spans="2:8">
+      <c r="B19" s="41">
+        <v>10332451</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="D19" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="E19" s="39">
         <v>0.75</v>
       </c>
-      <c r="F17" s="20">
-        <v>201003838875</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="18" ht="15.25" spans="2:8">
-      <c r="B18" s="18">
-        <v>10332448</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="E18" s="16">
+      <c r="F19" s="43">
+        <v>201557236176</v>
+      </c>
+      <c r="G19" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="20" ht="15.25" spans="2:8">
+      <c r="B20" s="41">
+        <v>10332650</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="39">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="39">
         <v>0.75</v>
       </c>
-      <c r="F18" s="15">
-        <v>201115300028</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>223</v>
-      </c>
-      <c r="H18" s="17" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="19" ht="15.25" spans="2:8">
-      <c r="B19" s="18">
-        <v>10332451</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="D19" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="F19" s="20">
-        <v>201557236176</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="20" ht="15.25" spans="2:8">
-      <c r="B20" s="18">
-        <v>10332650</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="16">
-        <v>0.375</v>
-      </c>
-      <c r="E20" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="F20" s="38">
         <v>201557944746</v>
       </c>
-      <c r="G20" s="17" t="s">
-        <v>257</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="G20" s="40" t="s">
         <v>258</v>
       </c>
+      <c r="H20" s="40" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="45"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="2">
@@ -7003,10 +7249,10 @@
       <c r="D26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="29">
         <v>1003838875</v>
       </c>
       <c r="G26" t="s">
@@ -7023,10 +7269,10 @@
       <c r="D27" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="30" t="s">
         <v>233</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G27" t="s">
@@ -7043,10 +7289,10 @@
       <c r="D28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="29">
         <v>1080801266</v>
       </c>
       <c r="G28" t="s">
@@ -7063,10 +7309,10 @@
       <c r="D29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="30" t="s">
         <v>235</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="29">
         <v>1115300028</v>
       </c>
       <c r="G29" t="s">
@@ -7084,13 +7330,13 @@
         <v>73</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F30" s="96" t="s">
         <v>260</v>
       </c>
+      <c r="F30" s="118" t="s">
+        <v>261</v>
+      </c>
       <c r="G30" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" spans="2:7">
@@ -7098,19 +7344,19 @@
         <v>10332650</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F31" s="118" t="s">
+        <v>263</v>
+      </c>
+      <c r="G31" t="s">
         <v>257</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="96" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" t="s">
-        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7134,13 +7380,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="10.8181818181818" customWidth="1"/>
     <col min="3" max="4" width="14.4545454545455" customWidth="1"/>
@@ -7150,7 +7396,7 @@
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" spans="1:8">
+    <row r="1" ht="15.5" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>133</v>
       </c>
@@ -7161,10 +7407,10 @@
         <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>231</v>
@@ -7173,7 +7419,7 @@
         <v>137</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2" ht="15.5" spans="1:8">
@@ -7187,16 +7433,16 @@
         <v>1147318485</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>126</v>
@@ -7213,10 +7459,10 @@
         <v>1064942383</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>154</v>
@@ -7239,10 +7485,10 @@
         <v>1008361694</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>130</v>
@@ -7254,7 +7500,123 @@
         <v>128</v>
       </c>
     </row>
+    <row r="5" ht="15.25"/>
+    <row r="6" ht="15.25" spans="1:7">
+      <c r="A6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" ht="15.25" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13">
+        <v>45807</v>
+      </c>
+      <c r="D7" s="14">
+        <v>45808</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16">
+        <v>45809</v>
+      </c>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" ht="29.75" spans="1:7">
+      <c r="A8" s="18">
+        <v>10333398</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" ht="29.75" spans="1:8">
+      <c r="A9" s="18">
+        <v>10333447</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="20">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F9" s="25">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="G9" s="26">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="H9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" ht="29.75" spans="1:8">
+      <c r="A10" s="18">
+        <v>10333590</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="20">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="F10" s="25">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="G10" s="26">
+        <v>0.541666666666667</v>
+      </c>
+      <c r="H10" t="s">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
